--- a/OnSolveAutomationProject/OnSolveAutomationProject/bin/Debug/TestData/FormSite.xlsx
+++ b/OnSolveAutomationProject/OnSolveAutomationProject/bin/Debug/TestData/FormSite.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>FirstName</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>edc</t>
+  </si>
+  <si>
+    <t>08/01/2018</t>
   </si>
 </sst>
 </file>
@@ -183,7 +186,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -468,7 +471,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,7 +485,7 @@
     <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -545,8 +548,8 @@
       <c r="I2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="4">
-        <v>43313</v>
+      <c r="J2" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -577,8 +580,8 @@
       <c r="I3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="4">
-        <v>43313</v>
+      <c r="J3" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -609,8 +612,8 @@
       <c r="I4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="4">
-        <v>43313</v>
+      <c r="J4" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
